--- a/results/results_3_common_end_dates_forecasting_or_imputation_tz2.xlsx
+++ b/results/results_3_common_end_dates_forecasting_or_imputation_tz2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176A57D-3278-4A28-85AB-F1045197FC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FDC831-71AD-4A3F-9EAF-CCB032749699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6770" yWindow="4220" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="141">
   <si>
     <t>weighted quantile loss (0.9)</t>
   </si>
@@ -444,15 +444,32 @@
   </si>
   <si>
     <t>m4_monthly_end092007</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>Naive2</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>ETS</t>
+  </si>
+  <si>
+    <t>ETSARIMA</t>
+  </si>
+  <si>
+    <t>Legaki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -493,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +520,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -784,7 +807,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -807,6 +829,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1104,11 +1133,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1345,10 +1374,10 @@
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="39"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -1384,11 +1413,11 @@
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
     </row>
     <row r="37" spans="2:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
@@ -1656,10 +1685,10 @@
     </row>
     <row r="63" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="64" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="40"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
@@ -1722,19 +1751,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2528BE6C-DDB8-47A2-816F-BAF7A0338D6F}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
     <col min="5" max="5" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
@@ -1802,278 +1831,146 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>1807</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="32">
+        <v>1.0867</v>
+      </c>
+      <c r="F3" s="32">
+        <v>0.18418199999999998</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>129</v>
       </c>
       <c r="B4">
         <v>1807</v>
       </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
+      <c r="C4" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="44"/>
       <c r="E4" s="32">
-        <v>1.1647380000000001</v>
+        <v>1.0470999999999999</v>
       </c>
       <c r="F4" s="32">
-        <v>0.18890799999999999</v>
-      </c>
-      <c r="G4" s="32">
-        <v>15.945872</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0.17411299999999999</v>
-      </c>
-      <c r="I4" s="32">
-        <v>0.13309399999999999</v>
-      </c>
-      <c r="J4">
-        <v>42</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>50</v>
-      </c>
-      <c r="O4" s="34">
-        <f>(32*K4*L4)/B4</f>
-        <v>88.544548976203657</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.18418199999999998</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>129</v>
       </c>
       <c r="B5">
         <v>1807</v>
       </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
+      <c r="C5" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="44"/>
       <c r="E5" s="32">
-        <v>1.1361790000000001</v>
+        <v>1.0591999999999999</v>
       </c>
       <c r="F5" s="32">
-        <v>0.18821099999999999</v>
-      </c>
-      <c r="G5" s="32">
-        <v>17.135404999999999</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0.17378099999999999</v>
-      </c>
-      <c r="I5" s="32">
-        <v>0.139372</v>
-      </c>
-      <c r="J5">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5">
-        <v>50</v>
-      </c>
-      <c r="O5" s="34">
-        <f t="shared" ref="O5:O13" si="0">(32*K5*L5)/B5</f>
-        <v>88.544548976203657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.18421999999999999</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>129</v>
       </c>
       <c r="B6">
         <v>1807</v>
       </c>
-      <c r="C6" t="s">
-        <v>130</v>
-      </c>
+      <c r="C6" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="44"/>
       <c r="E6" s="32">
-        <v>1.0859209999999999</v>
+        <v>1.0273000000000001</v>
       </c>
       <c r="F6" s="32">
-        <v>0.183397</v>
-      </c>
-      <c r="G6" s="32">
-        <v>15.898186000000001</v>
-      </c>
-      <c r="H6" s="32">
-        <v>0.16948299999999999</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0.13400300000000001</v>
-      </c>
-      <c r="J6">
-        <v>44</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
-        <v>50</v>
-      </c>
-      <c r="O6" s="34">
-        <f t="shared" si="0"/>
-        <v>88.544548976203657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.17782000000000001</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>129</v>
       </c>
       <c r="B7">
         <v>1807</v>
       </c>
-      <c r="C7" t="s">
-        <v>130</v>
-      </c>
+      <c r="C7" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="44"/>
       <c r="E7" s="32">
-        <v>1.1494709999999999</v>
+        <v>1.0504</v>
       </c>
       <c r="F7" s="32">
-        <v>0.18548600000000001</v>
-      </c>
-      <c r="G7" s="32">
-        <v>16.568771999999999</v>
-      </c>
-      <c r="H7" s="32">
-        <v>0.17547299999999999</v>
-      </c>
-      <c r="I7" s="32">
-        <v>0.13783599999999999</v>
-      </c>
-      <c r="J7">
-        <v>45</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
-      </c>
-      <c r="L7">
-        <v>50</v>
-      </c>
-      <c r="O7" s="34">
-        <f t="shared" si="0"/>
-        <v>88.544548976203657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8">
-        <v>1807</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1.0855220000000001</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0.18288399999999999</v>
-      </c>
-      <c r="G8" s="32">
-        <v>15.614853</v>
-      </c>
-      <c r="H8" s="32">
-        <v>0.16871</v>
-      </c>
-      <c r="I8" s="32">
-        <v>0.13237499999999999</v>
-      </c>
-      <c r="J8">
-        <v>46</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-      <c r="O8" s="34">
-        <f t="shared" si="0"/>
-        <v>88.544548976203657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9">
-        <v>1807</v>
-      </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="32">
-        <v>1.100206</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0.183471</v>
-      </c>
-      <c r="G9" s="32">
-        <v>16.535036000000002</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0.17122100000000001</v>
-      </c>
-      <c r="I9" s="32">
-        <v>0.13476099999999999</v>
-      </c>
-      <c r="J9">
-        <v>47</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="O9" s="34">
-        <f t="shared" si="0"/>
-        <v>88.544548976203657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10">
-        <v>1807</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E10" s="32">
-        <v>1.088935</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0.18452199999999999</v>
-      </c>
-      <c r="G10" s="32">
-        <v>15.752922999999999</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0.17055699999999999</v>
-      </c>
-      <c r="I10" s="32">
-        <v>0.13359199999999999</v>
-      </c>
-      <c r="J10">
-        <v>48</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <v>50</v>
-      </c>
-      <c r="O10" s="34">
-        <f t="shared" si="0"/>
-        <v>88.544548976203657</v>
-      </c>
+        <v>0.181085</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -2085,23 +1982,24 @@
       <c r="C11" t="s">
         <v>130</v>
       </c>
+      <c r="D11" s="44"/>
       <c r="E11" s="32">
-        <v>1.094171</v>
+        <v>1.1647380000000001</v>
       </c>
       <c r="F11" s="32">
-        <v>0.185025</v>
+        <v>0.18890799999999999</v>
       </c>
       <c r="G11" s="32">
-        <v>15.625429</v>
+        <v>15.945872</v>
       </c>
       <c r="H11" s="32">
-        <v>0.16845599999999999</v>
+        <v>0.17411299999999999</v>
       </c>
       <c r="I11" s="32">
-        <v>0.13175000000000001</v>
+        <v>0.13309399999999999</v>
       </c>
       <c r="J11">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -2109,8 +2007,8 @@
       <c r="L11">
         <v>50</v>
       </c>
-      <c r="O11" s="34">
-        <f t="shared" si="0"/>
+      <c r="O11" s="33">
+        <f>(32*K11*L11)/B11</f>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2124,23 +2022,24 @@
       <c r="C12" t="s">
         <v>130</v>
       </c>
+      <c r="D12" s="44"/>
       <c r="E12" s="32">
-        <v>1.1166020000000001</v>
+        <v>1.1361790000000001</v>
       </c>
       <c r="F12" s="32">
-        <v>0.18790999999999999</v>
+        <v>0.18821099999999999</v>
       </c>
       <c r="G12" s="32">
-        <v>15.845134</v>
+        <v>17.135404999999999</v>
       </c>
       <c r="H12" s="32">
-        <v>0.172181</v>
+        <v>0.17378099999999999</v>
       </c>
       <c r="I12" s="32">
-        <v>0.136849</v>
+        <v>0.139372</v>
       </c>
       <c r="J12">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2148,8 +2047,8 @@
       <c r="L12">
         <v>50</v>
       </c>
-      <c r="O12" s="34">
-        <f t="shared" si="0"/>
+      <c r="O12" s="33">
+        <f>(32*K12*L12)/B12</f>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2163,23 +2062,24 @@
       <c r="C13" t="s">
         <v>130</v>
       </c>
+      <c r="D13" s="44"/>
       <c r="E13" s="32">
-        <v>1.1559440000000001</v>
+        <v>1.0859209999999999</v>
       </c>
       <c r="F13" s="32">
-        <v>0.18714500000000001</v>
+        <v>0.183397</v>
       </c>
       <c r="G13" s="32">
-        <v>16.837067000000001</v>
+        <v>15.898186000000001</v>
       </c>
       <c r="H13" s="32">
-        <v>0.176291</v>
+        <v>0.16948299999999999</v>
       </c>
       <c r="I13" s="32">
-        <v>0.13727700000000001</v>
+        <v>0.13400300000000001</v>
       </c>
       <c r="J13">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>100</v>
@@ -2187,37 +2087,129 @@
       <c r="L13">
         <v>50</v>
       </c>
-      <c r="O13" s="34">
-        <f t="shared" si="0"/>
+      <c r="O13" s="33">
+        <f>(32*K13*L13)/B13</f>
         <v>88.544548976203657</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E14" s="33">
-        <f>AVERAGE(E4:E13)</f>
-        <v>1.1177689000000002</v>
-      </c>
-      <c r="F14" s="33">
-        <f>AVERAGE(F4:F13)</f>
-        <v>0.18569590000000002</v>
-      </c>
-      <c r="G14" s="33">
-        <f>AVERAGE(G4:G13)</f>
-        <v>16.175867700000001</v>
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>1807</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="32">
+        <v>1.1494709999999999</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.18548600000000001</v>
+      </c>
+      <c r="G14" s="32">
+        <v>16.568771999999999</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0.17547299999999999</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0.13783599999999999</v>
+      </c>
+      <c r="J14">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="O14" s="33">
+        <f>(32*K14*L14)/B14</f>
+        <v>88.544548976203657</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E15" s="33">
-        <f>MEDIAN(E4:E13)</f>
-        <v>1.1084040000000002</v>
-      </c>
-      <c r="F15" s="33">
-        <f>MEDIAN(F4:F13)</f>
-        <v>0.18525550000000002</v>
-      </c>
-      <c r="G15" s="33">
-        <f>MEDIAN(G4:G13)</f>
-        <v>15.922029</v>
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15">
+        <v>1807</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="32">
+        <v>1.0855220000000001</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.18288399999999999</v>
+      </c>
+      <c r="G15" s="32">
+        <v>15.614853</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0.16871</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0.13237499999999999</v>
+      </c>
+      <c r="J15">
+        <v>46</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+      <c r="O15" s="33">
+        <f>(32*K15*L15)/B15</f>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16">
+        <v>1807</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="32">
+        <v>1.100206</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0.183471</v>
+      </c>
+      <c r="G16" s="32">
+        <v>16.535036000000002</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0.17122100000000001</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0.13476099999999999</v>
+      </c>
+      <c r="J16">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+      <c r="O16" s="33">
+        <f>(32*K16*L16)/B16</f>
+        <v>88.544548976203657</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -2230,33 +2222,34 @@
       <c r="C17" t="s">
         <v>130</v>
       </c>
+      <c r="D17" s="44"/>
       <c r="E17" s="32">
-        <v>1.095018</v>
+        <v>1.088935</v>
       </c>
       <c r="F17" s="32">
-        <v>0.186394</v>
+        <v>0.18452199999999999</v>
       </c>
       <c r="G17" s="32">
-        <v>16.173891999999999</v>
+        <v>15.752922999999999</v>
       </c>
       <c r="H17" s="32">
-        <v>0.17027400000000001</v>
+        <v>0.17055699999999999</v>
       </c>
       <c r="I17" s="32">
-        <v>0.133715</v>
+        <v>0.13359199999999999</v>
       </c>
       <c r="J17">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>100</v>
       </c>
       <c r="L17">
-        <v>100</v>
-      </c>
-      <c r="O17" s="34">
-        <f t="shared" ref="O17:O25" si="1">(32*K17*L17)/B17</f>
-        <v>177.08909795240731</v>
+        <v>50</v>
+      </c>
+      <c r="O17" s="33">
+        <f>(32*K17*L17)/B17</f>
+        <v>88.544548976203657</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -2269,33 +2262,34 @@
       <c r="C18" t="s">
         <v>130</v>
       </c>
-      <c r="E18">
-        <v>1.1134790000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.186524</v>
-      </c>
-      <c r="G18">
-        <v>15.712464000000001</v>
-      </c>
-      <c r="H18">
-        <v>0.173148</v>
-      </c>
-      <c r="I18">
-        <v>0.13456199999999999</v>
+      <c r="D18" s="44"/>
+      <c r="E18" s="32">
+        <v>1.094171</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0.185025</v>
+      </c>
+      <c r="G18" s="32">
+        <v>15.625429</v>
+      </c>
+      <c r="H18" s="32">
+        <v>0.16845599999999999</v>
+      </c>
+      <c r="I18" s="32">
+        <v>0.13175000000000001</v>
       </c>
       <c r="J18">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>100</v>
       </c>
       <c r="L18">
-        <v>100</v>
-      </c>
-      <c r="O18" s="34">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
+        <v>50</v>
+      </c>
+      <c r="O18" s="33">
+        <f>(32*K18*L18)/B18</f>
+        <v>88.544548976203657</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -2308,33 +2302,34 @@
       <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="E19">
-        <v>1.214038</v>
-      </c>
-      <c r="F19">
-        <v>0.192075</v>
-      </c>
-      <c r="G19">
-        <v>17.28293</v>
-      </c>
-      <c r="H19">
-        <v>0.184116</v>
-      </c>
-      <c r="I19">
-        <v>0.13971500000000001</v>
+      <c r="D19" s="44"/>
+      <c r="E19" s="32">
+        <v>1.1166020000000001</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0.18790999999999999</v>
+      </c>
+      <c r="G19" s="32">
+        <v>15.845134</v>
+      </c>
+      <c r="H19" s="32">
+        <v>0.172181</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0.136849</v>
       </c>
       <c r="J19">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>100</v>
       </c>
       <c r="L19">
-        <v>100</v>
-      </c>
-      <c r="O19" s="34">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
+        <v>50</v>
+      </c>
+      <c r="O19" s="33">
+        <f>(32*K19*L19)/B19</f>
+        <v>88.544548976203657</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -2347,150 +2342,60 @@
       <c r="C20" t="s">
         <v>130</v>
       </c>
-      <c r="E20">
-        <v>1.1105400000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.18968399999999999</v>
-      </c>
-      <c r="G20">
-        <v>16.741209000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.17502799999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.14104700000000001</v>
+      <c r="D20" s="44"/>
+      <c r="E20" s="32">
+        <v>1.1559440000000001</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.18714500000000001</v>
+      </c>
+      <c r="G20" s="32">
+        <v>16.837067000000001</v>
+      </c>
+      <c r="H20" s="32">
+        <v>0.176291</v>
+      </c>
+      <c r="I20" s="32">
+        <v>0.13727700000000001</v>
       </c>
       <c r="J20">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>100</v>
       </c>
       <c r="L20">
-        <v>100</v>
-      </c>
-      <c r="O20" s="34">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
+        <v>50</v>
+      </c>
+      <c r="O20" s="33">
+        <f>(32*K20*L20)/B20</f>
+        <v>88.544548976203657</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21">
-        <v>1807</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21">
-        <v>1.1282669999999999</v>
-      </c>
-      <c r="F21">
-        <v>0.18829699999999999</v>
-      </c>
-      <c r="G21">
-        <v>15.982008</v>
-      </c>
-      <c r="H21">
-        <v>0.17574300000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.134602</v>
-      </c>
-      <c r="J21">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-      <c r="L21">
-        <v>100</v>
-      </c>
-      <c r="O21" s="34">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45">
+        <f>AVERAGE(E11:E20)</f>
+        <v>1.1177689000000002</v>
+      </c>
+      <c r="F21" s="45">
+        <f>AVERAGE(F11:F20)</f>
+        <v>0.18569590000000002</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="O21" s="33"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22">
-        <v>1807</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22">
-        <v>1.198774</v>
-      </c>
-      <c r="F22">
-        <v>0.19630300000000001</v>
-      </c>
-      <c r="G22">
-        <v>18.347179000000001</v>
-      </c>
-      <c r="H22">
-        <v>0.183892</v>
-      </c>
-      <c r="I22">
-        <v>0.14489199999999999</v>
-      </c>
-      <c r="J22">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22">
-        <v>100</v>
-      </c>
-      <c r="O22" s="34">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23">
-        <v>1807</v>
-      </c>
-      <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23">
-        <v>1.21926</v>
-      </c>
-      <c r="F23">
-        <v>0.19337499999999999</v>
-      </c>
-      <c r="G23">
-        <v>18.095815999999999</v>
-      </c>
-      <c r="H23">
-        <v>0.17872399999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.13577</v>
-      </c>
-      <c r="J23">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="L23">
-        <v>100</v>
-      </c>
-      <c r="O23" s="34">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43">
+        <f>MEDIAN(E11:E20)</f>
+        <v>1.1084040000000002</v>
+      </c>
+      <c r="F22" s="43">
+        <f>MEDIAN(F11:F20)</f>
+        <v>0.18525550000000002</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2503,23 +2408,24 @@
       <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="E24">
-        <v>1.139888</v>
-      </c>
-      <c r="F24">
-        <v>0.18847</v>
-      </c>
-      <c r="G24">
-        <v>16.218416999999999</v>
-      </c>
-      <c r="H24">
-        <v>0.17638999999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.13784299999999999</v>
+      <c r="D24" s="44"/>
+      <c r="E24" s="32">
+        <v>1.095018</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0.186394</v>
+      </c>
+      <c r="G24" s="32">
+        <v>16.173891999999999</v>
+      </c>
+      <c r="H24" s="32">
+        <v>0.17027400000000001</v>
+      </c>
+      <c r="I24" s="32">
+        <v>0.133715</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>100</v>
@@ -2527,8 +2433,8 @@
       <c r="L24">
         <v>100</v>
       </c>
-      <c r="O24" s="34">
-        <f t="shared" si="1"/>
+      <c r="O24" s="33">
+        <f>(32*K24*L24)/B24</f>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2542,23 +2448,24 @@
       <c r="C25" t="s">
         <v>130</v>
       </c>
-      <c r="E25">
-        <v>1.132541</v>
-      </c>
-      <c r="F25">
-        <v>0.19054199999999999</v>
-      </c>
-      <c r="G25">
-        <v>16.246382000000001</v>
-      </c>
-      <c r="H25">
-        <v>0.17691499999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.13789499999999999</v>
+      <c r="D25" s="44"/>
+      <c r="E25" s="32">
+        <v>1.1134790000000001</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.186524</v>
+      </c>
+      <c r="G25" s="32">
+        <v>15.712464000000001</v>
+      </c>
+      <c r="H25" s="32">
+        <v>0.173148</v>
+      </c>
+      <c r="I25" s="32">
+        <v>0.13456199999999999</v>
       </c>
       <c r="J25">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>100</v>
@@ -2566,66 +2473,352 @@
       <c r="L25">
         <v>100</v>
       </c>
-      <c r="O25" s="34">
-        <f t="shared" si="1"/>
+      <c r="O25" s="33">
+        <f>(32*K25*L25)/B25</f>
         <v>177.08909795240731</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E26" s="33">
-        <f>AVERAGE(E16:E25)</f>
-        <v>1.1502005555555554</v>
-      </c>
-      <c r="F26" s="33">
-        <f>AVERAGE(F16:F25)</f>
-        <v>0.19018488888888888</v>
-      </c>
-      <c r="G26" s="33">
-        <f>AVERAGE(G16:G25)</f>
-        <v>16.755588555555555</v>
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26">
+        <v>1807</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="32">
+        <v>1.214038</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.192075</v>
+      </c>
+      <c r="G26" s="32">
+        <v>17.28293</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0.184116</v>
+      </c>
+      <c r="I26" s="32">
+        <v>0.13971500000000001</v>
+      </c>
+      <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="O26" s="33">
+        <f>(32*K26*L26)/B26</f>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E27" s="33">
-        <f>MEDIAN(E16:E25)</f>
-        <v>1.132541</v>
-      </c>
-      <c r="F27" s="33">
-        <f>MEDIAN(F16:F25)</f>
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27">
+        <v>1807</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="32">
+        <v>1.1105400000000001</v>
+      </c>
+      <c r="F27" s="32">
         <v>0.18968399999999999</v>
       </c>
-      <c r="G27" s="33">
-        <f>MEDIAN(G16:G25)</f>
-        <v>16.246382000000001</v>
+      <c r="G27" s="32">
+        <v>16.741209000000001</v>
+      </c>
+      <c r="H27" s="32">
+        <v>0.17502799999999999</v>
+      </c>
+      <c r="I27" s="32">
+        <v>0.14104700000000001</v>
+      </c>
+      <c r="J27">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="O27" s="33">
+        <f>(32*K27*L27)/B27</f>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>1807</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="32">
+        <v>1.1282669999999999</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.18829699999999999</v>
+      </c>
+      <c r="G28" s="32">
+        <v>15.982008</v>
+      </c>
+      <c r="H28" s="32">
+        <v>0.17574300000000001</v>
+      </c>
+      <c r="I28" s="32">
+        <v>0.134602</v>
+      </c>
+      <c r="J28">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="O28" s="33">
+        <f>(32*K28*L28)/B28</f>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E29">
-        <v>1.113278</v>
-      </c>
-      <c r="F29">
-        <v>0.19501499999999999</v>
-      </c>
-      <c r="G29">
-        <v>16.606145000000001</v>
-      </c>
-      <c r="H29">
-        <v>0.177873</v>
-      </c>
-      <c r="I29">
-        <v>0.14069699999999999</v>
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29">
+        <v>1807</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="32">
+        <v>1.198774</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.19630300000000001</v>
+      </c>
+      <c r="G29" s="32">
+        <v>18.347179000000001</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0.183892</v>
+      </c>
+      <c r="I29" s="32">
+        <v>0.14489199999999999</v>
       </c>
       <c r="J29">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L29">
         <v>100</v>
       </c>
+      <c r="O29" s="33">
+        <f>(32*K29*L29)/B29</f>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>1807</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="32">
+        <v>1.21926</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0.19337499999999999</v>
+      </c>
+      <c r="G30" s="32">
+        <v>18.095815999999999</v>
+      </c>
+      <c r="H30" s="32">
+        <v>0.17872399999999999</v>
+      </c>
+      <c r="I30" s="32">
+        <v>0.13577</v>
+      </c>
+      <c r="J30">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+      <c r="O30" s="33">
+        <f>(32*K30*L30)/B30</f>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31">
+        <v>1807</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="32">
+        <v>1.139888</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.18847</v>
+      </c>
+      <c r="G31" s="32">
+        <v>16.218416999999999</v>
+      </c>
+      <c r="H31" s="32">
+        <v>0.17638999999999999</v>
+      </c>
+      <c r="I31" s="32">
+        <v>0.13784299999999999</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+      <c r="O31" s="33">
+        <f>(32*K31*L31)/B31</f>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32">
+        <v>1807</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="44"/>
+      <c r="E32" s="32">
+        <v>1.132541</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.19054199999999999</v>
+      </c>
+      <c r="G32" s="32">
+        <v>16.246382000000001</v>
+      </c>
+      <c r="H32" s="32">
+        <v>0.17691499999999999</v>
+      </c>
+      <c r="I32" s="32">
+        <v>0.13789499999999999</v>
+      </c>
+      <c r="J32">
+        <v>51</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+      <c r="O32" s="33">
+        <f>(32*K32*L32)/B32</f>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D33" s="45"/>
+      <c r="E33" s="45">
+        <f>AVERAGE(E24:E32)</f>
+        <v>1.1502005555555554</v>
+      </c>
+      <c r="F33" s="45">
+        <f>AVERAGE(F24:F32)</f>
+        <v>0.19018488888888888</v>
+      </c>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="O33" s="33"/>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D34" s="45"/>
+      <c r="E34" s="45">
+        <f>MEDIAN(E24:E32)</f>
+        <v>1.132541</v>
+      </c>
+      <c r="F34" s="45">
+        <f>MEDIAN(F24:F32)</f>
+        <v>0.18968399999999999</v>
+      </c>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.35">
+      <c r="D36" s="44"/>
+      <c r="E36">
+        <v>1.113278</v>
+      </c>
+      <c r="F36">
+        <v>0.19501499999999999</v>
+      </c>
+      <c r="G36">
+        <v>16.606145000000001</v>
+      </c>
+      <c r="H36">
+        <v>0.177873</v>
+      </c>
+      <c r="I36">
+        <v>0.14069699999999999</v>
+      </c>
+      <c r="J36">
+        <v>42</v>
+      </c>
+      <c r="K36">
+        <v>200</v>
+      </c>
+      <c r="L36">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:O9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2633,17 +2826,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12018D-2C7C-4540-960E-B821F0EF290F}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
@@ -2698,84 +2891,215 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>15700</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>1.0481</v>
+      </c>
+      <c r="F3">
+        <v>7.350799999999999E-2</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>133</v>
       </c>
       <c r="B4">
         <v>15700</v>
       </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4">
-        <v>42</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4" s="1">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>132</v>
-      </c>
-      <c r="N4" s="34">
-        <f>(32*L4*K4)/B4</f>
-        <v>10.19108280254777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C4" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="F4">
+        <v>6.7862999999999993E-2</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>133</v>
       </c>
       <c r="B5">
         <v>15700</v>
       </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
-      </c>
-      <c r="L5" s="1">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>132</v>
-      </c>
-      <c r="N5" s="34">
-        <f>(32*L5*K5)/B5</f>
-        <v>10.19108280254777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5">
+        <v>0.8972</v>
+      </c>
+      <c r="F5">
+        <v>6.8006999999999998E-2</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>133</v>
       </c>
       <c r="B6">
         <v>15700</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="F6">
+        <v>6.5831000000000001E-2</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7">
+        <v>15700</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="F7">
+        <v>6.8107000000000001E-2</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>15700</v>
+      </c>
+      <c r="C12" t="s">
         <v>130</v>
       </c>
-      <c r="J6">
+      <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" s="1">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12" s="33">
+        <f>(32*L12*K12)/B12</f>
+        <v>10.19108280254777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13">
+        <v>15700</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13">
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="33">
+        <f>(32*L13*K13)/B13</f>
+        <v>10.19108280254777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>15700</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14">
         <v>44</v>
       </c>
-      <c r="K6">
+      <c r="K14">
         <v>100</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L14" s="1">
         <v>50</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M14" t="s">
         <v>132</v>
       </c>
-      <c r="N6" s="34">
-        <f>(32*L6*K6)/B6</f>
+      <c r="N14" s="33">
+        <f>(32*L14*K14)/B14</f>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -2786,16 +3110,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14EDC4F-98C1-4C71-B921-EAE603E44527}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" customWidth="1"/>
     <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.26953125" customWidth="1"/>
@@ -2850,52 +3174,196 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>134</v>
       </c>
       <c r="B3">
         <v>943</v>
       </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3">
-        <v>42</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="34">
-        <f>(32*L3*K3)/B3</f>
-        <v>169.67126193001062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C3" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="44">
+        <f>((E3/$E$3)+(F3/$F$3))/2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0.30603900000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.2896000000000001</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>134</v>
       </c>
       <c r="B4">
         <v>943</v>
       </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C4" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="44">
+        <f t="shared" ref="D4:D7" si="0">((E4/$E$3)+(F4/$F$3))/2</f>
+        <v>0.88863705846451535</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0.27145600000000003</v>
+      </c>
+      <c r="F4">
+        <v>1.1480999999999999</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>134</v>
       </c>
       <c r="B5">
         <v>943</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="44">
+        <f t="shared" si="0"/>
+        <v>0.91381864414963676</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.27937000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.1797</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>943</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="44">
+        <f t="shared" si="0"/>
+        <v>0.88403041658713655</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.27070100000000002</v>
+      </c>
+      <c r="F6">
+        <v>1.1394</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7">
+        <v>943</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="44">
+        <f t="shared" si="0"/>
+        <v>0.84731018470196595</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.25629400000000002</v>
+      </c>
+      <c r="F7">
+        <v>1.1053999999999999</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10">
+        <v>943</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="33">
+        <f>(32*L10*K10)/B10</f>
+        <v>169.67126193001062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11">
+        <v>943</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12">
+        <v>943</v>
+      </c>
+      <c r="C12" t="s">
         <v>130</v>
       </c>
     </row>
